--- a/data/trans_orig/P39A1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P39A1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EDB0ED7-4F6A-4F60-ADBA-59377ADB47AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CD0B499-616E-4A67-BA22-A63F157015BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CFC56B05-DE7B-4B13-9762-F635F905D27A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{01B20954-A2D7-4A48-B5DE-9584971842FD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
   <si>
     <t>Población según si diría que estar con dolor o malestar, mareado o a punto de desmayarse es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 90,16%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>80,35%</t>
   </si>
   <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
   </si>
   <si>
     <t>84,36%</t>
   </si>
   <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
   </si>
   <si>
     <t>82,39%</t>
   </si>
   <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>19,65%</t>
   </si>
   <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
   </si>
   <si>
     <t>15,64%</t>
   </si>
   <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
   </si>
   <si>
     <t>17,61%</t>
   </si>
   <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,19 +137,19 @@
     <t>72,47%</t>
   </si>
   <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
   </si>
   <si>
     <t>66,21%</t>
   </si>
   <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
   </si>
   <si>
     <t>69,31%</t>
@@ -158,31 +158,31 @@
     <t>66,04%</t>
   </si>
   <si>
-    <t>72,19%</t>
+    <t>72,35%</t>
   </si>
   <si>
     <t>27,53%</t>
   </si>
   <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
   </si>
   <si>
     <t>33,79%</t>
   </si>
   <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
   </si>
   <si>
     <t>30,69%</t>
   </si>
   <si>
-    <t>27,81%</t>
+    <t>27,65%</t>
   </si>
   <si>
     <t>33,96%</t>
@@ -194,55 +194,55 @@
     <t>57,17%</t>
   </si>
   <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
   </si>
   <si>
     <t>48,22%</t>
   </si>
   <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
   </si>
   <si>
     <t>52,42%</t>
   </si>
   <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
   </si>
   <si>
     <t>42,83%</t>
   </si>
   <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
   </si>
   <si>
     <t>51,78%</t>
   </si>
   <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
   </si>
   <si>
     <t>47,58%</t>
   </si>
   <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +251,55 @@
     <t>94,48%</t>
   </si>
   <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
   </si>
   <si>
     <t>87,95%</t>
   </si>
   <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
   </si>
   <si>
     <t>90,77%</t>
   </si>
   <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
   </si>
   <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
   </si>
   <si>
     <t>12,05%</t>
   </si>
   <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
   </si>
   <si>
     <t>9,23%</t>
   </si>
   <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,55 +308,55 @@
     <t>31,61%</t>
   </si>
   <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
   </si>
   <si>
     <t>20,22%</t>
   </si>
   <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
   </si>
   <si>
     <t>25,45%</t>
   </si>
   <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
   </si>
   <si>
     <t>68,39%</t>
   </si>
   <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
   </si>
   <si>
     <t>79,78%</t>
   </si>
   <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
   </si>
   <si>
     <t>74,55%</t>
   </si>
   <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -365,55 +365,49 @@
     <t>78,21%</t>
   </si>
   <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
+    <t>72,88%</t>
   </si>
   <si>
     <t>79,1%</t>
   </si>
   <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
   </si>
   <si>
     <t>78,64%</t>
   </si>
   <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
   </si>
   <si>
     <t>21,79%</t>
   </si>
   <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
+    <t>27,12%</t>
   </si>
   <si>
     <t>20,9%</t>
   </si>
   <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
   </si>
   <si>
     <t>21,36%</t>
   </si>
   <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -422,55 +416,55 @@
     <t>46,49%</t>
   </si>
   <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
   </si>
   <si>
     <t>54,01%</t>
   </si>
   <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
   </si>
   <si>
     <t>50,71%</t>
   </si>
   <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
   </si>
   <si>
     <t>53,51%</t>
   </si>
   <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
   </si>
   <si>
     <t>45,99%</t>
   </si>
   <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
   </si>
   <si>
     <t>49,29%</t>
   </si>
   <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -479,109 +473,109 @@
     <t>93,43%</t>
   </si>
   <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
   </si>
   <si>
     <t>91,81%</t>
   </si>
   <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
   </si>
   <si>
     <t>92,61%</t>
   </si>
   <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
   </si>
   <si>
     <t>6,57%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
   </si>
   <si>
     <t>8,19%</t>
   </si>
   <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
   </si>
   <si>
     <t>7,39%</t>
   </si>
   <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
   </si>
   <si>
     <t>71,92%</t>
   </si>
   <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
   </si>
   <si>
     <t>69,28%</t>
   </si>
   <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
   </si>
   <si>
     <t>70,53%</t>
   </si>
   <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
   </si>
   <si>
     <t>28,08%</t>
   </si>
   <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
   </si>
   <si>
     <t>30,72%</t>
   </si>
   <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
   </si>
   <si>
     <t>29,47%</t>
   </si>
   <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -996,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3652F0-FE6B-447B-83F9-8D52C5CD35C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E045C7-FDC0-470D-A306-F8C98FB8AD86}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1287,7 +1281,7 @@
         <v>445</v>
       </c>
       <c r="I7" s="7">
-        <v>343382</v>
+        <v>343381</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1389,7 +1383,7 @@
         <v>667</v>
       </c>
       <c r="I9" s="7">
-        <v>518636</v>
+        <v>518635</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1901,7 +1895,7 @@
         <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="H19" s="7">
         <v>284</v>
@@ -1910,13 +1904,13 @@
         <v>184613</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>532</v>
@@ -1925,13 +1919,13 @@
         <v>379270</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1946,13 +1940,13 @@
         <v>54218</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>85</v>
@@ -1961,13 +1955,13 @@
         <v>48790</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>156</v>
@@ -1976,13 +1970,13 @@
         <v>103008</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2038,7 +2032,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2050,13 +2044,13 @@
         <v>269815</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>364</v>
@@ -2065,13 +2059,13 @@
         <v>399791</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>606</v>
@@ -2080,13 +2074,13 @@
         <v>669606</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2101,13 +2095,13 @@
         <v>310510</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>498</v>
@@ -2116,13 +2110,13 @@
         <v>340401</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>799</v>
@@ -2131,13 +2125,13 @@
         <v>650912</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,7 +2187,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2205,13 +2199,13 @@
         <v>734780</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>921</v>
@@ -2220,13 +2214,13 @@
         <v>740774</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>1579</v>
@@ -2235,13 +2229,13 @@
         <v>1475553</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,13 +2250,13 @@
         <v>51649</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>68</v>
@@ -2271,13 +2265,13 @@
         <v>66069</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>110</v>
@@ -2286,13 +2280,13 @@
         <v>117719</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,13 +2354,13 @@
         <v>2233063</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>3197</v>
@@ -2375,28 +2369,28 @@
         <v>2383055</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>5332</v>
       </c>
       <c r="N28" s="7">
-        <v>4616118</v>
+        <v>4616117</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,28 +2405,28 @@
         <v>871731</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>1615</v>
       </c>
       <c r="I29" s="7">
-        <v>1056669</v>
+        <v>1056670</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>2551</v>
@@ -2441,13 +2435,13 @@
         <v>1928401</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2474,7 +2468,7 @@
         <v>4812</v>
       </c>
       <c r="I30" s="7">
-        <v>3439724</v>
+        <v>3439725</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2489,7 +2483,7 @@
         <v>7883</v>
       </c>
       <c r="N30" s="7">
-        <v>6544519</v>
+        <v>6544518</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2503,7 +2497,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P39A1_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CD0B499-616E-4A67-BA22-A63F157015BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8DA9DBC-1336-48FC-8CBA-F1E79918F0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{01B20954-A2D7-4A48-B5DE-9584971842FD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{31F6F51B-98DE-423E-BB12-8FF9A0FAE3FC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E045C7-FDC0-470D-A306-F8C98FB8AD86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388DFFEC-1D90-4785-8B96-073EFBA23363}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P39A1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P39A1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8DA9DBC-1336-48FC-8CBA-F1E79918F0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42D6930D-CCD1-4386-BAB2-DDAD9CE8BD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{31F6F51B-98DE-423E-BB12-8FF9A0FAE3FC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{85EAEFD6-8893-40DB-BE84-C48B287DE8F5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
   <si>
     <t>Población según si diría que estar con dolor o malestar, mareado o a punto de desmayarse es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 90,16%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>80,35%</t>
   </si>
   <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
   </si>
   <si>
     <t>84,36%</t>
   </si>
   <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
   </si>
   <si>
     <t>82,39%</t>
   </si>
   <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>19,65%</t>
   </si>
   <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
   </si>
   <si>
     <t>15,64%</t>
   </si>
   <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
   </si>
   <si>
     <t>17,61%</t>
   </si>
   <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,19 +137,19 @@
     <t>72,47%</t>
   </si>
   <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
   </si>
   <si>
     <t>66,21%</t>
   </si>
   <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
   </si>
   <si>
     <t>69,31%</t>
@@ -158,31 +158,31 @@
     <t>66,04%</t>
   </si>
   <si>
-    <t>72,35%</t>
+    <t>72,19%</t>
   </si>
   <si>
     <t>27,53%</t>
   </si>
   <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
   </si>
   <si>
     <t>33,79%</t>
   </si>
   <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
   </si>
   <si>
     <t>30,69%</t>
   </si>
   <si>
-    <t>27,65%</t>
+    <t>27,81%</t>
   </si>
   <si>
     <t>33,96%</t>
@@ -194,55 +194,55 @@
     <t>57,17%</t>
   </si>
   <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
   </si>
   <si>
     <t>48,22%</t>
   </si>
   <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
   </si>
   <si>
     <t>52,42%</t>
   </si>
   <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
   </si>
   <si>
     <t>42,83%</t>
   </si>
   <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
   </si>
   <si>
     <t>51,78%</t>
   </si>
   <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
   </si>
   <si>
     <t>47,58%</t>
   </si>
   <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +251,55 @@
     <t>94,48%</t>
   </si>
   <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
   </si>
   <si>
     <t>87,95%</t>
   </si>
   <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
   </si>
   <si>
     <t>90,77%</t>
   </si>
   <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
   </si>
   <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
   </si>
   <si>
     <t>12,05%</t>
   </si>
   <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
   </si>
   <si>
     <t>9,23%</t>
   </si>
   <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,55 +308,55 @@
     <t>31,61%</t>
   </si>
   <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
   </si>
   <si>
     <t>20,22%</t>
   </si>
   <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
   </si>
   <si>
     <t>25,45%</t>
   </si>
   <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
   </si>
   <si>
     <t>68,39%</t>
   </si>
   <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
   </si>
   <si>
     <t>79,78%</t>
   </si>
   <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
   </si>
   <si>
     <t>74,55%</t>
   </si>
   <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -365,49 +365,55 @@
     <t>78,21%</t>
   </si>
   <si>
-    <t>72,88%</t>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
   </si>
   <si>
     <t>79,1%</t>
   </si>
   <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
   </si>
   <si>
     <t>78,64%</t>
   </si>
   <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
   </si>
   <si>
     <t>21,79%</t>
   </si>
   <si>
-    <t>27,12%</t>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
   </si>
   <si>
     <t>20,9%</t>
   </si>
   <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
   </si>
   <si>
     <t>21,36%</t>
   </si>
   <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -416,55 +422,55 @@
     <t>46,49%</t>
   </si>
   <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
   </si>
   <si>
     <t>54,01%</t>
   </si>
   <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
   </si>
   <si>
     <t>50,71%</t>
   </si>
   <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
   </si>
   <si>
     <t>53,51%</t>
   </si>
   <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
   </si>
   <si>
     <t>45,99%</t>
   </si>
   <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
   </si>
   <si>
     <t>49,29%</t>
   </si>
   <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -473,109 +479,109 @@
     <t>93,43%</t>
   </si>
   <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
   </si>
   <si>
     <t>91,81%</t>
   </si>
   <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
   </si>
   <si>
     <t>92,61%</t>
   </si>
   <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
   </si>
   <si>
     <t>6,57%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
   </si>
   <si>
     <t>8,19%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
   </si>
   <si>
     <t>7,39%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
   </si>
   <si>
     <t>71,92%</t>
   </si>
   <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
   </si>
   <si>
     <t>69,28%</t>
   </si>
   <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
   </si>
   <si>
     <t>70,53%</t>
   </si>
   <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
   </si>
   <si>
     <t>28,08%</t>
   </si>
   <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
   </si>
   <si>
     <t>30,72%</t>
   </si>
   <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
   </si>
   <si>
     <t>29,47%</t>
   </si>
   <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388DFFEC-1D90-4785-8B96-073EFBA23363}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A194CD-0CB9-4E08-8026-80751744E4D5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1281,7 +1287,7 @@
         <v>445</v>
       </c>
       <c r="I7" s="7">
-        <v>343381</v>
+        <v>343382</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1383,7 +1389,7 @@
         <v>667</v>
       </c>
       <c r="I9" s="7">
-        <v>518635</v>
+        <v>518636</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1895,7 +1901,7 @@
         <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>284</v>
@@ -1904,13 +1910,13 @@
         <v>184613</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>532</v>
@@ -1919,13 +1925,13 @@
         <v>379270</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1946,13 @@
         <v>54218</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>85</v>
@@ -1955,13 +1961,13 @@
         <v>48790</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>156</v>
@@ -1970,13 +1976,13 @@
         <v>103008</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,7 +2038,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2044,13 +2050,13 @@
         <v>269815</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>364</v>
@@ -2059,13 +2065,13 @@
         <v>399791</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>606</v>
@@ -2074,13 +2080,13 @@
         <v>669606</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,13 +2101,13 @@
         <v>310510</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>498</v>
@@ -2110,13 +2116,13 @@
         <v>340401</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>799</v>
@@ -2125,13 +2131,13 @@
         <v>650912</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,7 +2193,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2199,13 +2205,13 @@
         <v>734780</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>921</v>
@@ -2214,13 +2220,13 @@
         <v>740774</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>1579</v>
@@ -2229,13 +2235,13 @@
         <v>1475553</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,13 +2256,13 @@
         <v>51649</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>68</v>
@@ -2265,13 +2271,13 @@
         <v>66069</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>110</v>
@@ -2280,13 +2286,13 @@
         <v>117719</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,13 +2360,13 @@
         <v>2233063</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>3197</v>
@@ -2369,28 +2375,28 @@
         <v>2383055</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>5332</v>
       </c>
       <c r="N28" s="7">
-        <v>4616117</v>
+        <v>4616118</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,28 +2411,28 @@
         <v>871731</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>1615</v>
       </c>
       <c r="I29" s="7">
-        <v>1056670</v>
+        <v>1056669</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>2551</v>
@@ -2435,13 +2441,13 @@
         <v>1928401</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2468,7 +2474,7 @@
         <v>4812</v>
       </c>
       <c r="I30" s="7">
-        <v>3439725</v>
+        <v>3439724</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2483,7 +2489,7 @@
         <v>7883</v>
       </c>
       <c r="N30" s="7">
-        <v>6544518</v>
+        <v>6544519</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2497,7 +2503,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P39A1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42D6930D-CCD1-4386-BAB2-DDAD9CE8BD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90F223A1-3E37-41BD-B2EF-41E77597D5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{85EAEFD6-8893-40DB-BE84-C48B287DE8F5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{352508C8-CFF3-4BD5-AA65-B2D6426BBDD3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
   <si>
     <t>Población según si diría que estar con dolor o malestar, mareado o a punto de desmayarse es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 90,16%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,454 +134,448 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
   </si>
   <si>
     <t>62,29%</t>
   </si>
   <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
   </si>
   <si>
     <t>37,71%</t>
   </si>
   <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
   </si>
   <si>
     <t>53,34%</t>
   </si>
   <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
   </si>
   <si>
     <t>46,66%</t>
   </si>
   <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
   </si>
   <si>
     <t>96,75%</t>
   </si>
   <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
   </si>
   <si>
     <t>3,25%</t>
   </si>
   <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
   </si>
   <si>
     <t>Huelva</t>
   </si>
   <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
   </si>
   <si>
     <t>Jaen</t>
   </si>
   <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
   </si>
   <si>
     <t>Malaga</t>
   </si>
   <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
   </si>
   <si>
     <t>54,01%</t>
   </si>
   <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
   </si>
   <si>
     <t>45,99%</t>
   </si>
   <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -996,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A194CD-0CB9-4E08-8026-80751744E4D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA97E5E4-419A-49E2-BD03-E87AF30C769B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1117,7 +1111,7 @@
         <v>262</v>
       </c>
       <c r="D4" s="7">
-        <v>207740</v>
+        <v>250608</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1132,7 +1126,7 @@
         <v>449</v>
       </c>
       <c r="I4" s="7">
-        <v>225664</v>
+        <v>239463</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1147,7 +1141,7 @@
         <v>711</v>
       </c>
       <c r="N4" s="7">
-        <v>433403</v>
+        <v>490072</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1168,7 +1162,7 @@
         <v>67</v>
       </c>
       <c r="D5" s="7">
-        <v>50789</v>
+        <v>58822</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1183,7 +1177,7 @@
         <v>85</v>
       </c>
       <c r="I5" s="7">
-        <v>41829</v>
+        <v>44226</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1198,7 +1192,7 @@
         <v>152</v>
       </c>
       <c r="N5" s="7">
-        <v>92619</v>
+        <v>103048</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1219,7 +1213,7 @@
         <v>329</v>
       </c>
       <c r="D6" s="7">
-        <v>258529</v>
+        <v>309430</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1234,7 +1228,7 @@
         <v>534</v>
       </c>
       <c r="I6" s="7">
-        <v>267493</v>
+        <v>283689</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1249,7 +1243,7 @@
         <v>863</v>
       </c>
       <c r="N6" s="7">
-        <v>526022</v>
+        <v>593120</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1272,7 +1266,7 @@
         <v>262</v>
       </c>
       <c r="D7" s="7">
-        <v>367731</v>
+        <v>369366</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1287,7 +1281,7 @@
         <v>445</v>
       </c>
       <c r="I7" s="7">
-        <v>343382</v>
+        <v>318928</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1302,7 +1296,7 @@
         <v>707</v>
       </c>
       <c r="N7" s="7">
-        <v>711113</v>
+        <v>688294</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1323,7 +1317,7 @@
         <v>109</v>
       </c>
       <c r="D8" s="7">
-        <v>139673</v>
+        <v>137621</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1338,7 +1332,7 @@
         <v>222</v>
       </c>
       <c r="I8" s="7">
-        <v>175254</v>
+        <v>162936</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1353,7 +1347,7 @@
         <v>331</v>
       </c>
       <c r="N8" s="7">
-        <v>314927</v>
+        <v>300557</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1374,7 +1368,7 @@
         <v>371</v>
       </c>
       <c r="D9" s="7">
-        <v>507404</v>
+        <v>506987</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1389,7 +1383,7 @@
         <v>667</v>
       </c>
       <c r="I9" s="7">
-        <v>518636</v>
+        <v>481864</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1404,7 +1398,7 @@
         <v>1038</v>
       </c>
       <c r="N9" s="7">
-        <v>1026040</v>
+        <v>988851</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1427,7 +1421,7 @@
         <v>166</v>
       </c>
       <c r="D10" s="7">
-        <v>157452</v>
+        <v>155178</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1442,7 +1436,7 @@
         <v>207</v>
       </c>
       <c r="I10" s="7">
-        <v>150447</v>
+        <v>140752</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1457,7 +1451,7 @@
         <v>373</v>
       </c>
       <c r="N10" s="7">
-        <v>307899</v>
+        <v>295930</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1478,7 +1472,7 @@
         <v>137</v>
       </c>
       <c r="D11" s="7">
-        <v>117940</v>
+        <v>115238</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1493,7 +1487,7 @@
         <v>238</v>
       </c>
       <c r="I11" s="7">
-        <v>161580</v>
+        <v>151227</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1508,7 +1502,7 @@
         <v>375</v>
       </c>
       <c r="N11" s="7">
-        <v>279520</v>
+        <v>266466</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1529,7 +1523,7 @@
         <v>303</v>
       </c>
       <c r="D12" s="7">
-        <v>275392</v>
+        <v>270416</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1544,7 +1538,7 @@
         <v>445</v>
       </c>
       <c r="I12" s="7">
-        <v>312027</v>
+        <v>291979</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1559,7 +1553,7 @@
         <v>748</v>
       </c>
       <c r="N12" s="7">
-        <v>587419</v>
+        <v>562396</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1582,7 +1576,7 @@
         <v>214</v>
       </c>
       <c r="D13" s="7">
-        <v>239428</v>
+        <v>230059</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1597,7 +1591,7 @@
         <v>427</v>
       </c>
       <c r="I13" s="7">
-        <v>292060</v>
+        <v>270332</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1612,7 +1606,7 @@
         <v>641</v>
       </c>
       <c r="N13" s="7">
-        <v>531488</v>
+        <v>500390</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1633,7 +1627,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="7">
-        <v>13997</v>
+        <v>13406</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1648,7 +1642,7 @@
         <v>33</v>
       </c>
       <c r="I14" s="7">
-        <v>40017</v>
+        <v>92634</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1663,7 +1657,7 @@
         <v>49</v>
       </c>
       <c r="N14" s="7">
-        <v>54014</v>
+        <v>106040</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1684,7 +1678,7 @@
         <v>230</v>
       </c>
       <c r="D15" s="7">
-        <v>253425</v>
+        <v>243465</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1699,7 +1693,7 @@
         <v>460</v>
       </c>
       <c r="I15" s="7">
-        <v>332077</v>
+        <v>362966</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1714,7 +1708,7 @@
         <v>690</v>
       </c>
       <c r="N15" s="7">
-        <v>585502</v>
+        <v>606430</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1737,7 +1731,7 @@
         <v>83</v>
       </c>
       <c r="D16" s="7">
-        <v>61461</v>
+        <v>55459</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1752,7 +1746,7 @@
         <v>100</v>
       </c>
       <c r="I16" s="7">
-        <v>46325</v>
+        <v>41447</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1767,7 +1761,7 @@
         <v>183</v>
       </c>
       <c r="N16" s="7">
-        <v>107786</v>
+        <v>96907</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1788,7 +1782,7 @@
         <v>193</v>
       </c>
       <c r="D17" s="7">
-        <v>132954</v>
+        <v>121170</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1803,7 +1797,7 @@
         <v>386</v>
       </c>
       <c r="I17" s="7">
-        <v>182729</v>
+        <v>164623</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1818,7 +1812,7 @@
         <v>579</v>
       </c>
       <c r="N17" s="7">
-        <v>315683</v>
+        <v>285793</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1839,7 +1833,7 @@
         <v>276</v>
       </c>
       <c r="D18" s="7">
-        <v>194415</v>
+        <v>176629</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1854,7 +1848,7 @@
         <v>486</v>
       </c>
       <c r="I18" s="7">
-        <v>229054</v>
+        <v>206070</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1869,7 +1863,7 @@
         <v>762</v>
       </c>
       <c r="N18" s="7">
-        <v>423469</v>
+        <v>382700</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1892,46 +1886,46 @@
         <v>248</v>
       </c>
       <c r="D19" s="7">
-        <v>194657</v>
+        <v>189793</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>284</v>
       </c>
       <c r="I19" s="7">
-        <v>184613</v>
+        <v>172449</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>532</v>
       </c>
       <c r="N19" s="7">
-        <v>379270</v>
+        <v>362242</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,46 +1937,46 @@
         <v>71</v>
       </c>
       <c r="D20" s="7">
-        <v>54218</v>
+        <v>52467</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="H20" s="7">
         <v>85</v>
       </c>
       <c r="I20" s="7">
-        <v>48790</v>
+        <v>45282</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>156</v>
       </c>
       <c r="N20" s="7">
-        <v>103008</v>
+        <v>97749</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1994,7 +1988,7 @@
         <v>319</v>
       </c>
       <c r="D21" s="7">
-        <v>248875</v>
+        <v>242260</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2009,7 +2003,7 @@
         <v>369</v>
       </c>
       <c r="I21" s="7">
-        <v>233403</v>
+        <v>217731</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2024,7 +2018,7 @@
         <v>688</v>
       </c>
       <c r="N21" s="7">
-        <v>482278</v>
+        <v>459991</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2038,7 +2032,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2047,46 +2041,46 @@
         <v>242</v>
       </c>
       <c r="D22" s="7">
-        <v>269815</v>
+        <v>266921</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>364</v>
       </c>
       <c r="I22" s="7">
-        <v>399791</v>
+        <v>473254</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>606</v>
       </c>
       <c r="N22" s="7">
-        <v>669606</v>
+        <v>740175</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2098,46 +2092,46 @@
         <v>301</v>
       </c>
       <c r="D23" s="7">
-        <v>310510</v>
+        <v>312531</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>498</v>
       </c>
       <c r="I23" s="7">
-        <v>340401</v>
+        <v>317780</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>799</v>
       </c>
       <c r="N23" s="7">
-        <v>650912</v>
+        <v>630311</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,7 +2143,7 @@
         <v>543</v>
       </c>
       <c r="D24" s="7">
-        <v>580325</v>
+        <v>579452</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2164,7 +2158,7 @@
         <v>862</v>
       </c>
       <c r="I24" s="7">
-        <v>740192</v>
+        <v>791034</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2179,7 +2173,7 @@
         <v>1405</v>
       </c>
       <c r="N24" s="7">
-        <v>1320518</v>
+        <v>1370486</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2193,7 +2187,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2202,46 +2196,46 @@
         <v>658</v>
       </c>
       <c r="D25" s="7">
-        <v>734780</v>
+        <v>823611</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>921</v>
       </c>
       <c r="I25" s="7">
-        <v>740774</v>
+        <v>614532</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>1579</v>
       </c>
       <c r="N25" s="7">
-        <v>1475553</v>
+        <v>1438143</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,46 +2247,46 @@
         <v>42</v>
       </c>
       <c r="D26" s="7">
-        <v>51649</v>
+        <v>44163</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>68</v>
       </c>
       <c r="I26" s="7">
-        <v>66069</v>
+        <v>52891</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>110</v>
       </c>
       <c r="N26" s="7">
-        <v>117719</v>
+        <v>97053</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,7 +2298,7 @@
         <v>700</v>
       </c>
       <c r="D27" s="7">
-        <v>786429</v>
+        <v>867774</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2319,7 +2313,7 @@
         <v>989</v>
       </c>
       <c r="I27" s="7">
-        <v>806843</v>
+        <v>667423</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2334,7 +2328,7 @@
         <v>1689</v>
       </c>
       <c r="N27" s="7">
-        <v>1593272</v>
+        <v>1535196</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2357,46 +2351,46 @@
         <v>2135</v>
       </c>
       <c r="D28" s="7">
-        <v>2233063</v>
+        <v>2340996</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>3197</v>
       </c>
       <c r="I28" s="7">
-        <v>2383055</v>
+        <v>2271157</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>5332</v>
       </c>
       <c r="N28" s="7">
-        <v>4616118</v>
+        <v>4612153</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,46 +2402,46 @@
         <v>936</v>
       </c>
       <c r="D29" s="7">
-        <v>871731</v>
+        <v>855417</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>1615</v>
       </c>
       <c r="I29" s="7">
-        <v>1056669</v>
+        <v>1031599</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>2551</v>
       </c>
       <c r="N29" s="7">
-        <v>1928401</v>
+        <v>1887016</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,7 +2453,7 @@
         <v>3071</v>
       </c>
       <c r="D30" s="7">
-        <v>3104794</v>
+        <v>3196413</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2474,7 +2468,7 @@
         <v>4812</v>
       </c>
       <c r="I30" s="7">
-        <v>3439724</v>
+        <v>3302756</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2489,7 +2483,7 @@
         <v>7883</v>
       </c>
       <c r="N30" s="7">
-        <v>6544519</v>
+        <v>6499169</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2503,7 +2497,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
